--- a/examples/EMTF_vu13p_r1/src/protocol_OTMB32.xlsx
+++ b/examples/EMTF_vu13p_r1/src/protocol_OTMB32.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="1143">
   <si>
     <t xml:space="preserve">// path</t>
   </si>
@@ -1310,9 +1310,6 @@
   </si>
   <si>
     <t xml:space="preserve">RXSLIDE_MODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCS</t>
   </si>
   <si>
     <t xml:space="preserve">RXSYNC_MULTILANE</t>
@@ -3590,8 +3587,8 @@
   </sheetPr>
   <dimension ref="A1:D717"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A465" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A515" activeCellId="0" sqref="A515"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A291" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B321" activeCellId="0" sqref="B321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6792,14 +6789,14 @@
         <v>428</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B321" s="4" t="s">
         <v>6</v>
@@ -6809,7 +6806,7 @@
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B322" s="4" t="s">
         <v>6</v>
@@ -6819,7 +6816,7 @@
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B323" s="4" t="s">
         <v>6</v>
@@ -6829,7 +6826,7 @@
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B324" s="4" t="s">
         <v>6</v>
@@ -6839,17 +6836,17 @@
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B325" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="B325" s="4" t="s">
-        <v>435</v>
       </c>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B326" s="4" t="s">
         <v>128</v>
@@ -6859,7 +6856,7 @@
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B327" s="4" t="s">
         <v>6</v>
@@ -6869,17 +6866,17 @@
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B328" s="4" t="s">
         <v>438</v>
-      </c>
-      <c r="B328" s="4" t="s">
-        <v>439</v>
       </c>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B329" s="4" t="s">
         <v>29</v>
@@ -6889,7 +6886,7 @@
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B330" s="4" t="s">
         <v>134</v>
@@ -6899,17 +6896,17 @@
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="B331" s="4" t="s">
         <v>442</v>
-      </c>
-      <c r="B331" s="4" t="s">
-        <v>443</v>
       </c>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B332" s="4" t="s">
         <v>6</v>
@@ -6919,27 +6916,27 @@
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B333" s="4" t="s">
         <v>445</v>
-      </c>
-      <c r="B333" s="4" t="s">
-        <v>446</v>
       </c>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="B334" s="4" t="s">
         <v>447</v>
-      </c>
-      <c r="B334" s="4" t="s">
-        <v>448</v>
       </c>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B335" s="4" t="s">
         <v>6</v>
@@ -6949,7 +6946,7 @@
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B336" s="4" t="s">
         <v>264</v>
@@ -6959,17 +6956,17 @@
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B337" s="4" t="s">
         <v>451</v>
-      </c>
-      <c r="B337" s="4" t="s">
-        <v>452</v>
       </c>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B338" s="4" t="s">
         <v>128</v>
@@ -6979,7 +6976,7 @@
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B339" s="4" t="s">
         <v>80</v>
@@ -6989,27 +6986,27 @@
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B340" s="4" t="s">
         <v>455</v>
-      </c>
-      <c r="B340" s="4" t="s">
-        <v>456</v>
       </c>
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B342" s="4" t="s">
         <v>29</v>
@@ -7019,7 +7016,7 @@
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B343" s="4" t="s">
         <v>29</v>
@@ -7029,7 +7026,7 @@
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B344" s="4" t="s">
         <v>103</v>
@@ -7039,17 +7036,17 @@
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B346" s="4" t="s">
         <v>103</v>
@@ -7059,17 +7056,17 @@
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B347" s="4" t="s">
         <v>463</v>
-      </c>
-      <c r="B347" s="4" t="s">
-        <v>464</v>
       </c>
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B348" s="4" t="s">
         <v>103</v>
@@ -7079,7 +7076,7 @@
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B349" s="4" t="s">
         <v>6</v>
@@ -7089,7 +7086,7 @@
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B350" s="4" t="s">
         <v>80</v>
@@ -7099,7 +7096,7 @@
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B351" s="4" t="s">
         <v>274</v>
@@ -7109,7 +7106,7 @@
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B352" s="4" t="s">
         <v>6</v>
@@ -7119,7 +7116,7 @@
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B353" s="4" t="s">
         <v>82</v>
@@ -7129,17 +7126,17 @@
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B354" s="4" t="s">
         <v>471</v>
-      </c>
-      <c r="B354" s="4" t="s">
-        <v>472</v>
       </c>
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B355" s="4" t="s">
         <v>6</v>
@@ -7149,17 +7146,17 @@
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B356" s="4" t="s">
         <v>474</v>
-      </c>
-      <c r="B356" s="4" t="s">
-        <v>475</v>
       </c>
       <c r="C356" s="4"/>
       <c r="D356" s="4"/>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B357" s="4" t="s">
         <v>6</v>
@@ -7169,7 +7166,7 @@
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B358" s="4" t="s">
         <v>6</v>
@@ -7179,7 +7176,7 @@
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B359" s="4" t="s">
         <v>29</v>
@@ -7189,7 +7186,7 @@
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B360" s="4" t="s">
         <v>19</v>
@@ -7199,7 +7196,7 @@
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B361" s="4" t="s">
         <v>6</v>
@@ -7209,27 +7206,27 @@
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B362" s="4" t="s">
         <v>481</v>
-      </c>
-      <c r="B362" s="4" t="s">
-        <v>482</v>
       </c>
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B363" s="4" t="s">
         <v>483</v>
-      </c>
-      <c r="B363" s="4" t="s">
-        <v>484</v>
       </c>
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B364" s="4" t="s">
         <v>264</v>
@@ -7239,7 +7236,7 @@
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B365" s="4" t="s">
         <v>6</v>
@@ -7249,27 +7246,27 @@
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B366" s="4" t="s">
         <v>487</v>
-      </c>
-      <c r="B366" s="4" t="s">
-        <v>488</v>
       </c>
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B367" s="4" t="s">
         <v>489</v>
-      </c>
-      <c r="B367" s="4" t="s">
-        <v>490</v>
       </c>
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B368" s="4" t="s">
         <v>82</v>
@@ -7279,7 +7276,7 @@
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B369" s="4" t="s">
         <v>6</v>
@@ -7289,7 +7286,7 @@
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B370" s="4" t="s">
         <v>264</v>
@@ -7299,7 +7296,7 @@
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B371" s="4" t="s">
         <v>82</v>
@@ -7309,7 +7306,7 @@
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B372" s="4" t="s">
         <v>264</v>
@@ -7319,17 +7316,17 @@
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B373" s="4" t="s">
         <v>496</v>
-      </c>
-      <c r="B373" s="4" t="s">
-        <v>497</v>
       </c>
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B374" s="4" t="s">
         <v>29</v>
@@ -7339,7 +7336,7 @@
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B375" s="4" t="s">
         <v>6</v>
@@ -7349,37 +7346,37 @@
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C376" s="4"/>
       <c r="D376" s="4"/>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C377" s="4"/>
       <c r="D377" s="4"/>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B378" s="4" t="s">
         <v>502</v>
-      </c>
-      <c r="B378" s="4" t="s">
-        <v>503</v>
       </c>
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B379" s="4" t="s">
         <v>29</v>
@@ -7389,7 +7386,7 @@
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B380" s="4" t="s">
         <v>115</v>
@@ -7399,7 +7396,7 @@
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B381" s="4" t="s">
         <v>115</v>
@@ -7409,27 +7406,27 @@
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B382" s="4" t="s">
         <v>507</v>
-      </c>
-      <c r="B382" s="4" t="s">
-        <v>508</v>
       </c>
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="B383" s="4" t="s">
         <v>509</v>
-      </c>
-      <c r="B383" s="4" t="s">
-        <v>510</v>
       </c>
       <c r="C383" s="4"/>
       <c r="D383" s="4"/>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B384" s="4" t="s">
         <v>29</v>
@@ -7439,7 +7436,7 @@
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B385" s="4" t="s">
         <v>6</v>
@@ -7449,7 +7446,7 @@
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B386" s="4" t="s">
         <v>6</v>
@@ -7459,7 +7456,7 @@
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B387" s="4" t="s">
         <v>46</v>
@@ -7469,37 +7466,37 @@
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C388" s="4"/>
       <c r="D388" s="4"/>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="B389" s="4" t="s">
         <v>516</v>
-      </c>
-      <c r="B389" s="4" t="s">
-        <v>517</v>
       </c>
       <c r="C389" s="4"/>
       <c r="D389" s="4"/>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C390" s="4"/>
       <c r="D390" s="4"/>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B391" s="4" t="s">
         <v>15</v>
@@ -7509,17 +7506,17 @@
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B392" s="4" t="s">
         <v>520</v>
-      </c>
-      <c r="B392" s="4" t="s">
-        <v>521</v>
       </c>
       <c r="C392" s="4"/>
       <c r="D392" s="4"/>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B393" s="4" t="s">
         <v>261</v>
@@ -7529,7 +7526,7 @@
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B394" s="4" t="s">
         <v>80</v>
@@ -7539,7 +7536,7 @@
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B395" s="4" t="s">
         <v>80</v>
@@ -7549,17 +7546,17 @@
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B396" s="4" t="s">
         <v>525</v>
-      </c>
-      <c r="B396" s="4" t="s">
-        <v>526</v>
       </c>
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B397" s="4" t="s">
         <v>82</v>
@@ -7569,7 +7566,7 @@
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B398" s="4" t="s">
         <v>6</v>
@@ -7579,17 +7576,17 @@
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="B399" s="4" t="s">
         <v>529</v>
-      </c>
-      <c r="B399" s="4" t="s">
-        <v>530</v>
       </c>
       <c r="C399" s="4"/>
       <c r="D399" s="4"/>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B400" s="4" t="s">
         <v>227</v>
@@ -7599,37 +7596,37 @@
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="B401" s="4" t="s">
         <v>532</v>
-      </c>
-      <c r="B401" s="4" t="s">
-        <v>533</v>
       </c>
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B402" s="4" t="s">
         <v>534</v>
-      </c>
-      <c r="B402" s="4" t="s">
-        <v>535</v>
       </c>
       <c r="C402" s="4"/>
       <c r="D402" s="4"/>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="B403" s="4" t="s">
         <v>536</v>
-      </c>
-      <c r="B403" s="4" t="s">
-        <v>537</v>
       </c>
       <c r="C403" s="4"/>
       <c r="D403" s="4"/>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B404" s="4" t="s">
         <v>125</v>
@@ -7639,7 +7636,7 @@
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B405" s="4" t="s">
         <v>125</v>
@@ -7649,7 +7646,7 @@
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B406" s="4" t="s">
         <v>80</v>
@@ -7659,7 +7656,7 @@
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B407" s="4" t="s">
         <v>80</v>
@@ -7669,17 +7666,17 @@
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="B408" s="4" t="s">
         <v>542</v>
-      </c>
-      <c r="B408" s="4" t="s">
-        <v>543</v>
       </c>
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B409" s="4" t="s">
         <v>387</v>
@@ -7689,7 +7686,7 @@
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B410" s="4" t="s">
         <v>82</v>
@@ -7699,57 +7696,57 @@
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B411" s="4" t="s">
         <v>546</v>
-      </c>
-      <c r="B411" s="4" t="s">
-        <v>547</v>
       </c>
       <c r="C411" s="4"/>
       <c r="D411" s="4"/>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B412" s="4" t="s">
         <v>548</v>
-      </c>
-      <c r="B412" s="4" t="s">
-        <v>549</v>
       </c>
       <c r="C412" s="4"/>
       <c r="D412" s="4"/>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B415" s="4" t="s">
         <v>552</v>
-      </c>
-      <c r="B415" s="4" t="s">
-        <v>553</v>
       </c>
       <c r="C415" s="4"/>
       <c r="D415" s="4"/>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B416" s="4" t="s">
         <v>188</v>
@@ -7759,7 +7756,7 @@
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B417" s="4" t="s">
         <v>15</v>
@@ -7769,7 +7766,7 @@
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B418" s="4" t="s">
         <v>103</v>
@@ -7779,7 +7776,7 @@
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B419" s="4" t="s">
         <v>259</v>
@@ -7789,37 +7786,37 @@
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B420" s="4" t="s">
         <v>558</v>
-      </c>
-      <c r="B420" s="4" t="s">
-        <v>559</v>
       </c>
       <c r="C420" s="4"/>
       <c r="D420" s="4"/>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B421" s="4" t="s">
         <v>560</v>
-      </c>
-      <c r="B421" s="4" t="s">
-        <v>561</v>
       </c>
       <c r="C421" s="4"/>
       <c r="D421" s="4"/>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B422" s="4" t="s">
         <v>562</v>
-      </c>
-      <c r="B422" s="4" t="s">
-        <v>563</v>
       </c>
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B423" s="4" t="s">
         <v>10</v>
@@ -7829,7 +7826,7 @@
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B424" s="4" t="s">
         <v>134</v>
@@ -7839,27 +7836,27 @@
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B425" s="4" t="s">
         <v>566</v>
-      </c>
-      <c r="B425" s="4" t="s">
-        <v>567</v>
       </c>
       <c r="C425" s="4"/>
       <c r="D425" s="4"/>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="B426" s="4" t="s">
         <v>568</v>
-      </c>
-      <c r="B426" s="4" t="s">
-        <v>569</v>
       </c>
       <c r="C426" s="4"/>
       <c r="D426" s="4"/>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B427" s="4" t="s">
         <v>6</v>
@@ -7869,7 +7866,7 @@
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B428" s="4" t="s">
         <v>6</v>
@@ -7879,7 +7876,7 @@
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B429" s="4" t="s">
         <v>6</v>
@@ -7889,27 +7886,27 @@
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="B430" s="4" t="s">
         <v>573</v>
-      </c>
-      <c r="B430" s="4" t="s">
-        <v>574</v>
       </c>
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B432" s="4" t="s">
         <v>259</v>
@@ -7919,7 +7916,7 @@
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B433" s="4" t="s">
         <v>6</v>
@@ -7929,7 +7926,7 @@
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B434" s="4" t="s">
         <v>19</v>
@@ -7939,7 +7936,7 @@
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B435" s="4" t="s">
         <v>82</v>
@@ -7949,7 +7946,7 @@
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B436" s="4" t="s">
         <v>188</v>
@@ -7959,7 +7956,7 @@
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B437" s="4" t="s">
         <v>6</v>
@@ -7969,7 +7966,7 @@
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B438" s="4" t="s">
         <v>6</v>
@@ -7979,7 +7976,7 @@
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B439" s="4" t="s">
         <v>6</v>
@@ -7989,17 +7986,17 @@
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B441" s="4" t="s">
         <v>29</v>
@@ -8009,27 +8006,27 @@
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B443" s="4" t="s">
         <v>587</v>
-      </c>
-      <c r="B443" s="4" t="s">
-        <v>588</v>
       </c>
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B444" s="4" t="s">
         <v>128</v>
@@ -8039,7 +8036,7 @@
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B445" s="4" t="s">
         <v>128</v>
@@ -8049,7 +8046,7 @@
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B446" s="4" t="s">
         <v>128</v>
@@ -8059,7 +8056,7 @@
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B447" s="4" t="s">
         <v>128</v>
@@ -8069,7 +8066,7 @@
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B448" s="4" t="s">
         <v>274</v>
@@ -8079,27 +8076,27 @@
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B449" s="4" t="s">
         <v>594</v>
-      </c>
-      <c r="B449" s="4" t="s">
-        <v>595</v>
       </c>
       <c r="C449" s="4"/>
       <c r="D449" s="4"/>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B451" s="4" t="s">
         <v>256</v>
@@ -8109,7 +8106,7 @@
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B452" s="4" t="s">
         <v>6</v>
@@ -8119,7 +8116,7 @@
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B453" s="4" t="s">
         <v>6</v>
@@ -8129,7 +8126,7 @@
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B454" s="4" t="s">
         <v>6</v>
@@ -8139,7 +8136,7 @@
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B455" s="4" t="s">
         <v>19</v>
@@ -8149,7 +8146,7 @@
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B456" s="4" t="s">
         <v>15</v>
@@ -8159,7 +8156,7 @@
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B457" s="4" t="s">
         <v>6</v>
@@ -8169,127 +8166,127 @@
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="B458" s="4" t="s">
         <v>604</v>
-      </c>
-      <c r="B458" s="4" t="s">
-        <v>605</v>
       </c>
       <c r="C458" s="4"/>
       <c r="D458" s="4"/>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B459" s="4" t="s">
         <v>606</v>
-      </c>
-      <c r="B459" s="4" t="s">
-        <v>607</v>
       </c>
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B460" s="4" t="s">
         <v>608</v>
-      </c>
-      <c r="B460" s="4" t="s">
-        <v>609</v>
       </c>
       <c r="C460" s="4"/>
       <c r="D460" s="4"/>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="B461" s="4" t="s">
         <v>610</v>
-      </c>
-      <c r="B461" s="4" t="s">
-        <v>611</v>
       </c>
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B462" s="4" t="s">
         <v>612</v>
-      </c>
-      <c r="B462" s="4" t="s">
-        <v>613</v>
       </c>
       <c r="C462" s="4"/>
       <c r="D462" s="4"/>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B463" s="4" t="s">
         <v>614</v>
-      </c>
-      <c r="B463" s="4" t="s">
-        <v>615</v>
       </c>
       <c r="C463" s="4"/>
       <c r="D463" s="4"/>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="B464" s="4" t="s">
         <v>616</v>
-      </c>
-      <c r="B464" s="4" t="s">
-        <v>617</v>
       </c>
       <c r="C464" s="4"/>
       <c r="D464" s="4"/>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B465" s="4" t="s">
         <v>618</v>
-      </c>
-      <c r="B465" s="4" t="s">
-        <v>619</v>
       </c>
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="B466" s="4" t="s">
         <v>620</v>
-      </c>
-      <c r="B466" s="4" t="s">
-        <v>621</v>
       </c>
       <c r="C466" s="4"/>
       <c r="D466" s="4"/>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="B467" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="B467" s="4" t="s">
-        <v>623</v>
       </c>
       <c r="C467" s="4"/>
       <c r="D467" s="4"/>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="B468" s="4" t="s">
         <v>624</v>
-      </c>
-      <c r="B468" s="4" t="s">
-        <v>625</v>
       </c>
       <c r="C468" s="4"/>
       <c r="D468" s="4"/>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="B469" s="4" t="s">
         <v>626</v>
-      </c>
-      <c r="B469" s="4" t="s">
-        <v>627</v>
       </c>
       <c r="C469" s="4"/>
       <c r="D469" s="4"/>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B470" s="4" t="s">
         <v>82</v>
@@ -8299,7 +8296,7 @@
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B471" s="4" t="s">
         <v>6</v>
@@ -8309,7 +8306,7 @@
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B472" s="4" t="s">
         <v>6</v>
@@ -8319,7 +8316,7 @@
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B473" s="4" t="s">
         <v>10</v>
@@ -8329,7 +8326,7 @@
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B474" s="4" t="s">
         <v>10</v>
@@ -8339,37 +8336,37 @@
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="B475" s="4" t="s">
         <v>633</v>
-      </c>
-      <c r="B475" s="4" t="s">
-        <v>634</v>
       </c>
       <c r="C475" s="4"/>
       <c r="D475" s="4"/>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C476" s="4"/>
       <c r="D476" s="4"/>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="B477" s="4" t="s">
         <v>636</v>
-      </c>
-      <c r="B477" s="4" t="s">
-        <v>637</v>
       </c>
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B478" s="4" t="s">
         <v>105</v>
@@ -8379,17 +8376,17 @@
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C479" s="4"/>
       <c r="D479" s="4"/>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B480" s="4" t="s">
         <v>115</v>
@@ -8399,7 +8396,7 @@
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B481" s="4" t="s">
         <v>256</v>
@@ -8409,7 +8406,7 @@
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B482" s="4" t="s">
         <v>29</v>
@@ -8419,27 +8416,27 @@
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C483" s="4"/>
       <c r="D483" s="4"/>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="B484" s="4" t="s">
         <v>644</v>
-      </c>
-      <c r="B484" s="4" t="s">
-        <v>645</v>
       </c>
       <c r="C484" s="4"/>
       <c r="D484" s="4"/>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B485" s="4" t="s">
         <v>6</v>
@@ -8449,27 +8446,27 @@
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="B486" s="4" t="s">
         <v>647</v>
-      </c>
-      <c r="B486" s="4" t="s">
-        <v>648</v>
       </c>
       <c r="C486" s="4"/>
       <c r="D486" s="4"/>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="B487" s="4" t="s">
         <v>649</v>
-      </c>
-      <c r="B487" s="4" t="s">
-        <v>650</v>
       </c>
       <c r="C487" s="4"/>
       <c r="D487" s="4"/>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B488" s="4" t="s">
         <v>6</v>
@@ -8479,7 +8476,7 @@
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B489" s="4" t="s">
         <v>29</v>
@@ -8489,97 +8486,97 @@
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="B490" s="4" t="s">
         <v>653</v>
-      </c>
-      <c r="B490" s="4" t="s">
-        <v>654</v>
       </c>
       <c r="C490" s="4"/>
       <c r="D490" s="4"/>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="B491" s="4" t="s">
         <v>655</v>
-      </c>
-      <c r="B491" s="4" t="s">
-        <v>656</v>
       </c>
       <c r="C491" s="4"/>
       <c r="D491" s="4"/>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="B492" s="4" t="s">
         <v>657</v>
-      </c>
-      <c r="B492" s="4" t="s">
-        <v>658</v>
       </c>
       <c r="C492" s="4"/>
       <c r="D492" s="4"/>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="B493" s="4" t="s">
         <v>659</v>
-      </c>
-      <c r="B493" s="4" t="s">
-        <v>660</v>
       </c>
       <c r="C493" s="4"/>
       <c r="D493" s="4"/>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="B494" s="4" t="s">
         <v>661</v>
-      </c>
-      <c r="B494" s="4" t="s">
-        <v>662</v>
       </c>
       <c r="C494" s="4"/>
       <c r="D494" s="4"/>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="B495" s="4" t="s">
         <v>663</v>
-      </c>
-      <c r="B495" s="4" t="s">
-        <v>664</v>
       </c>
       <c r="C495" s="4"/>
       <c r="D495" s="4"/>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="B496" s="4" t="s">
         <v>665</v>
-      </c>
-      <c r="B496" s="4" t="s">
-        <v>666</v>
       </c>
       <c r="C496" s="4"/>
       <c r="D496" s="4"/>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="B497" s="4" t="s">
         <v>667</v>
-      </c>
-      <c r="B497" s="4" t="s">
-        <v>668</v>
       </c>
       <c r="C497" s="4"/>
       <c r="D497" s="4"/>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="B498" s="4" t="s">
         <v>669</v>
-      </c>
-      <c r="B498" s="4" t="s">
-        <v>670</v>
       </c>
       <c r="C498" s="4"/>
       <c r="D498" s="4"/>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B499" s="4" t="s">
         <v>29</v>
@@ -8589,7 +8586,7 @@
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B500" s="4" t="s">
         <v>6</v>
@@ -8599,7 +8596,7 @@
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B501" s="4" t="s">
         <v>6</v>
@@ -8609,37 +8606,37 @@
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="B502" s="4" t="s">
         <v>674</v>
-      </c>
-      <c r="B502" s="4" t="s">
-        <v>675</v>
       </c>
       <c r="C502" s="4"/>
       <c r="D502" s="4"/>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="B503" s="4" t="s">
         <v>676</v>
-      </c>
-      <c r="B503" s="4" t="s">
-        <v>677</v>
       </c>
       <c r="C503" s="4"/>
       <c r="D503" s="4"/>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="B504" s="4" t="s">
         <v>678</v>
-      </c>
-      <c r="B504" s="4" t="s">
-        <v>679</v>
       </c>
       <c r="C504" s="4"/>
       <c r="D504" s="4"/>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B505" s="4" t="s">
         <v>188</v>
@@ -8649,7 +8646,7 @@
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B506" s="4" t="s">
         <v>6</v>
@@ -8659,7 +8656,7 @@
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B507" s="4" t="s">
         <v>29</v>
@@ -8669,7 +8666,7 @@
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B508" s="4" t="s">
         <v>29</v>
@@ -8679,7 +8676,7 @@
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B509" s="4" t="s">
         <v>427</v>
@@ -8689,7 +8686,7 @@
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B510" s="4" t="s">
         <v>188</v>
@@ -8699,27 +8696,27 @@
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="B511" s="4" t="s">
         <v>686</v>
-      </c>
-      <c r="B511" s="4" t="s">
-        <v>687</v>
       </c>
       <c r="C511" s="4"/>
       <c r="D511" s="4"/>
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="B512" s="4" t="s">
         <v>688</v>
-      </c>
-      <c r="B512" s="4" t="s">
-        <v>689</v>
       </c>
       <c r="C512" s="4"/>
       <c r="D512" s="4"/>
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B513" s="4" t="s">
         <v>6</v>
@@ -8729,7 +8726,7 @@
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B514" s="4" t="s">
         <v>6</v>
@@ -8739,7 +8736,7 @@
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B515" s="4" t="s">
         <v>6</v>
@@ -8749,7 +8746,7 @@
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B516" s="4" t="s">
         <v>6</v>
@@ -8759,7 +8756,7 @@
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B517" s="4" t="s">
         <v>6</v>
@@ -8769,7 +8766,7 @@
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B518" s="4" t="s">
         <v>6</v>
@@ -8779,7 +8776,7 @@
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B519" s="4" t="s">
         <v>6</v>
@@ -8789,7 +8786,7 @@
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B520" s="4" t="s">
         <v>6</v>
@@ -8799,7 +8796,7 @@
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B521" s="4" t="s">
         <v>6</v>
@@ -8809,7 +8806,7 @@
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B522" s="4" t="s">
         <v>6</v>
@@ -8819,7 +8816,7 @@
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B523" s="4" t="s">
         <v>29</v>
@@ -8829,17 +8826,17 @@
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B524" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C524" s="4"/>
       <c r="D524" s="4"/>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B525" s="4" t="s">
         <v>6</v>
@@ -8849,7 +8846,7 @@
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B526" s="4" t="s">
         <v>6</v>
@@ -8859,7 +8856,7 @@
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B527" s="4" t="s">
         <v>6</v>
@@ -8869,7 +8866,7 @@
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B528" s="4" t="s">
         <v>6</v>
@@ -8879,7 +8876,7 @@
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B529" s="4" t="s">
         <v>6</v>
@@ -8889,7 +8886,7 @@
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B530" s="4" t="s">
         <v>6</v>
@@ -8899,7 +8896,7 @@
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B531" s="4" t="s">
         <v>6</v>
@@ -8909,7 +8906,7 @@
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B532" s="4" t="s">
         <v>6</v>
@@ -8919,7 +8916,7 @@
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B533" s="4" t="s">
         <v>6</v>
@@ -8929,7 +8926,7 @@
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B534" s="4" t="s">
         <v>6</v>
@@ -8939,7 +8936,7 @@
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B535" s="4" t="s">
         <v>63</v>
@@ -8949,7 +8946,7 @@
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B536" s="4" t="s">
         <v>6</v>
@@ -8959,7 +8956,7 @@
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B537" s="4" t="s">
         <v>6</v>
@@ -8969,7 +8966,7 @@
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B538" s="4" t="s">
         <v>6</v>
@@ -8979,7 +8976,7 @@
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B539" s="4" t="s">
         <v>6</v>
@@ -8989,7 +8986,7 @@
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B540" s="4" t="s">
         <v>6</v>
@@ -8999,7 +8996,7 @@
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B541" s="4" t="s">
         <v>112</v>
@@ -9009,7 +9006,7 @@
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B542" s="4" t="s">
         <v>6</v>
@@ -9019,7 +9016,7 @@
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B543" s="4" t="s">
         <v>6</v>
@@ -9029,7 +9026,7 @@
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B544" s="4" t="s">
         <v>6</v>
@@ -9039,7 +9036,7 @@
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B545" s="4" t="s">
         <v>6</v>
@@ -9049,7 +9046,7 @@
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B546" s="4" t="s">
         <v>63</v>
@@ -9059,7 +9056,7 @@
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B547" s="4" t="s">
         <v>6</v>
@@ -9069,7 +9066,7 @@
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B548" s="4" t="s">
         <v>6</v>
@@ -9079,7 +9076,7 @@
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B549" s="4" t="s">
         <v>6</v>
@@ -9089,7 +9086,7 @@
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B550" s="4" t="s">
         <v>6</v>
@@ -9099,7 +9096,7 @@
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B551" s="4" t="s">
         <v>6</v>
@@ -9109,7 +9106,7 @@
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B552" s="4" t="s">
         <v>6</v>
@@ -9119,7 +9116,7 @@
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B553" s="4" t="s">
         <v>6</v>
@@ -9129,7 +9126,7 @@
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B554" s="4" t="s">
         <v>6</v>
@@ -9139,7 +9136,7 @@
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B555" s="4" t="s">
         <v>29</v>
@@ -9149,7 +9146,7 @@
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B556" s="4" t="s">
         <v>6</v>
@@ -9159,7 +9156,7 @@
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B557" s="4" t="s">
         <v>6</v>
@@ -9169,7 +9166,7 @@
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B558" s="4" t="s">
         <v>6</v>
@@ -9179,7 +9176,7 @@
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B559" s="4" t="s">
         <v>6</v>
@@ -9189,7 +9186,7 @@
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B560" s="4" t="s">
         <v>6</v>
@@ -9199,7 +9196,7 @@
     </row>
     <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B561" s="4" t="s">
         <v>6</v>
@@ -9209,7 +9206,7 @@
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B562" s="4" t="s">
         <v>134</v>
@@ -9219,7 +9216,7 @@
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B563" s="4" t="s">
         <v>112</v>
@@ -9229,7 +9226,7 @@
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B564" s="4" t="s">
         <v>6</v>
@@ -9239,7 +9236,7 @@
     </row>
     <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B565" s="4" t="s">
         <v>6</v>
@@ -9249,7 +9246,7 @@
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B566" s="4" t="s">
         <v>6</v>
@@ -9259,17 +9256,17 @@
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B567" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C567" s="4"/>
       <c r="D567" s="4"/>
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B568" s="4" t="s">
         <v>29</v>
@@ -9279,7 +9276,7 @@
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B569" s="4" t="s">
         <v>6</v>
@@ -9289,7 +9286,7 @@
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B570" s="4" t="s">
         <v>6</v>
@@ -9299,17 +9296,17 @@
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="B571" s="4" t="s">
         <v>748</v>
-      </c>
-      <c r="B571" s="4" t="s">
-        <v>749</v>
       </c>
       <c r="C571" s="4"/>
       <c r="D571" s="4"/>
     </row>
     <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B572" s="4" t="s">
         <v>6</v>
@@ -9319,7 +9316,7 @@
     </row>
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B573" s="4" t="s">
         <v>6</v>
@@ -9329,7 +9326,7 @@
     </row>
     <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B574" s="4" t="s">
         <v>6</v>
@@ -9339,7 +9336,7 @@
     </row>
     <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B575" s="4" t="s">
         <v>6</v>
@@ -9349,7 +9346,7 @@
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B576" s="4" t="s">
         <v>6</v>
@@ -9359,7 +9356,7 @@
     </row>
     <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B577" s="4" t="s">
         <v>6</v>
@@ -9369,7 +9366,7 @@
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B578" s="4" t="s">
         <v>6</v>
@@ -9379,7 +9376,7 @@
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B579" s="4" t="s">
         <v>6</v>
@@ -9389,7 +9386,7 @@
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B580" s="4" t="s">
         <v>6</v>
@@ -9399,7 +9396,7 @@
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B581" s="4" t="s">
         <v>6</v>
@@ -9409,7 +9406,7 @@
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B582" s="4" t="s">
         <v>6</v>
@@ -9419,7 +9416,7 @@
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B583" s="4" t="s">
         <v>6</v>
@@ -9429,7 +9426,7 @@
     </row>
     <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B584" s="4" t="s">
         <v>6</v>
@@ -9439,7 +9436,7 @@
     </row>
     <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B585" s="4" t="s">
         <v>6</v>
@@ -9449,7 +9446,7 @@
     </row>
     <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B586" s="4" t="s">
         <v>6</v>
@@ -9459,7 +9456,7 @@
     </row>
     <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B587" s="4" t="s">
         <v>6</v>
@@ -9469,7 +9466,7 @@
     </row>
     <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B588" s="4" t="s">
         <v>6</v>
@@ -9479,7 +9476,7 @@
     </row>
     <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B589" s="4" t="s">
         <v>6</v>
@@ -9489,7 +9486,7 @@
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B590" s="4" t="s">
         <v>6</v>
@@ -9499,7 +9496,7 @@
     </row>
     <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B591" s="4" t="s">
         <v>6</v>
@@ -9509,7 +9506,7 @@
     </row>
     <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B592" s="4" t="s">
         <v>6</v>
@@ -9519,7 +9516,7 @@
     </row>
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B593" s="4" t="s">
         <v>6</v>
@@ -9529,7 +9526,7 @@
     </row>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B594" s="4" t="s">
         <v>6</v>
@@ -9539,7 +9536,7 @@
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B595" s="4" t="s">
         <v>6</v>
@@ -9549,7 +9546,7 @@
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B596" s="4" t="s">
         <v>6</v>
@@ -9559,7 +9556,7 @@
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B597" s="4" t="s">
         <v>6</v>
@@ -9569,7 +9566,7 @@
     </row>
     <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B598" s="4" t="s">
         <v>6</v>
@@ -9579,7 +9576,7 @@
     </row>
     <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B599" s="4" t="s">
         <v>6</v>
@@ -9589,7 +9586,7 @@
     </row>
     <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B600" s="4" t="s">
         <v>6</v>
@@ -9599,7 +9596,7 @@
     </row>
     <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B601" s="4" t="s">
         <v>6</v>
@@ -9609,7 +9606,7 @@
     </row>
     <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B602" s="4" t="s">
         <v>6</v>
@@ -9619,7 +9616,7 @@
     </row>
     <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B603" s="4" t="s">
         <v>6</v>
@@ -9629,7 +9626,7 @@
     </row>
     <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B604" s="4" t="s">
         <v>6</v>
@@ -9639,7 +9636,7 @@
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B605" s="4" t="s">
         <v>6</v>
@@ -9649,7 +9646,7 @@
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B606" s="4" t="s">
         <v>6</v>
@@ -9659,7 +9656,7 @@
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B607" s="4" t="s">
         <v>6</v>
@@ -9669,7 +9666,7 @@
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B608" s="4" t="s">
         <v>6</v>
@@ -9679,7 +9676,7 @@
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B609" s="4" t="s">
         <v>6</v>
@@ -9689,7 +9686,7 @@
     </row>
     <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B610" s="4" t="s">
         <v>6</v>
@@ -9699,7 +9696,7 @@
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B611" s="4" t="s">
         <v>6</v>
@@ -9709,7 +9706,7 @@
     </row>
     <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B612" s="4" t="s">
         <v>6</v>
@@ -9719,7 +9716,7 @@
     </row>
     <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B613" s="4" t="s">
         <v>29</v>
@@ -9729,7 +9726,7 @@
     </row>
     <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B614" s="4" t="s">
         <v>6</v>
@@ -9739,7 +9736,7 @@
     </row>
     <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B615" s="4" t="s">
         <v>6</v>
@@ -9749,7 +9746,7 @@
     </row>
     <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B616" s="4" t="s">
         <v>6</v>
@@ -9759,17 +9756,17 @@
     </row>
     <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B617" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C617" s="4"/>
       <c r="D617" s="4"/>
     </row>
     <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B618" s="4" t="s">
         <v>6</v>
@@ -9779,7 +9776,7 @@
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B619" s="4" t="s">
         <v>6</v>
@@ -9789,7 +9786,7 @@
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B620" s="4" t="s">
         <v>6</v>
@@ -9799,7 +9796,7 @@
     </row>
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B621" s="4" t="s">
         <v>29</v>
@@ -9809,7 +9806,7 @@
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B622" s="4" t="s">
         <v>6</v>
@@ -9819,7 +9816,7 @@
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B623" s="4" t="s">
         <v>6</v>
@@ -9829,7 +9826,7 @@
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B624" s="4" t="s">
         <v>6</v>
@@ -9839,7 +9836,7 @@
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B625" s="4" t="s">
         <v>6</v>
@@ -9849,7 +9846,7 @@
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B626" s="4" t="s">
         <v>6</v>
@@ -9859,7 +9856,7 @@
     </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B627" s="4" t="s">
         <v>6</v>
@@ -9869,7 +9866,7 @@
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B628" s="4" t="s">
         <v>6</v>
@@ -9879,7 +9876,7 @@
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B629" s="4" t="s">
         <v>6</v>
@@ -9889,7 +9886,7 @@
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B630" s="4" t="s">
         <v>6</v>
@@ -9899,7 +9896,7 @@
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B631" s="4" t="s">
         <v>115</v>
@@ -9909,7 +9906,7 @@
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B632" s="4" t="s">
         <v>6</v>
@@ -9919,7 +9916,7 @@
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B633" s="4" t="s">
         <v>6</v>
@@ -9929,7 +9926,7 @@
     </row>
     <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B634" s="4" t="s">
         <v>6</v>
@@ -9939,7 +9936,7 @@
     </row>
     <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B635" s="4" t="s">
         <v>6</v>
@@ -9949,17 +9946,17 @@
     </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B636" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C636" s="4"/>
       <c r="D636" s="4"/>
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B637" s="4" t="s">
         <v>6</v>
@@ -9969,7 +9966,7 @@
     </row>
     <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B638" s="4" t="s">
         <v>6</v>
@@ -9979,7 +9976,7 @@
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B639" s="4" t="s">
         <v>115</v>
@@ -9989,7 +9986,7 @@
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B640" s="4" t="s">
         <v>6</v>
@@ -9999,7 +9996,7 @@
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B641" s="4" t="s">
         <v>6</v>
@@ -10009,7 +10006,7 @@
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B642" s="4" t="s">
         <v>6</v>
@@ -10019,7 +10016,7 @@
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B643" s="4" t="s">
         <v>6</v>
@@ -10029,7 +10026,7 @@
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B644" s="4" t="s">
         <v>115</v>
@@ -10039,7 +10036,7 @@
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B645" s="4" t="s">
         <v>6</v>
@@ -10049,7 +10046,7 @@
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B646" s="4" t="s">
         <v>6</v>
@@ -10059,7 +10056,7 @@
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B647" s="4" t="s">
         <v>6</v>
@@ -10069,7 +10066,7 @@
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B648" s="4" t="s">
         <v>264</v>
@@ -10079,7 +10076,7 @@
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B649" s="4" t="s">
         <v>6</v>
@@ -10089,7 +10086,7 @@
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B650" s="4" t="s">
         <v>112</v>
@@ -10099,7 +10096,7 @@
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B651" s="4" t="s">
         <v>6</v>
@@ -10109,7 +10106,7 @@
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B652" s="4" t="s">
         <v>6</v>
@@ -10119,7 +10116,7 @@
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B653" s="4" t="s">
         <v>6</v>
@@ -10129,7 +10126,7 @@
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B654" s="4" t="s">
         <v>6</v>
@@ -10139,7 +10136,7 @@
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B655" s="4" t="s">
         <v>29</v>
@@ -10149,7 +10146,7 @@
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B656" s="4" t="s">
         <v>115</v>
@@ -10159,7 +10156,7 @@
     </row>
     <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B657" s="4" t="s">
         <v>6</v>
@@ -10169,7 +10166,7 @@
     </row>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B658" s="4" t="s">
         <v>6</v>
@@ -10179,27 +10176,27 @@
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="B659" s="4" t="s">
         <v>837</v>
-      </c>
-      <c r="B659" s="4" t="s">
-        <v>838</v>
       </c>
       <c r="C659" s="4"/>
       <c r="D659" s="4"/>
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B660" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C660" s="4"/>
       <c r="D660" s="4"/>
     </row>
     <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B661" s="4" t="s">
         <v>6</v>
@@ -10209,7 +10206,7 @@
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B662" s="4" t="s">
         <v>6</v>
@@ -10219,7 +10216,7 @@
     </row>
     <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B663" s="4" t="s">
         <v>6</v>
@@ -10229,7 +10226,7 @@
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B664" s="4" t="s">
         <v>6</v>
@@ -10239,27 +10236,27 @@
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B665" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C665" s="4"/>
       <c r="D665" s="4"/>
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B666" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C666" s="4"/>
       <c r="D666" s="4"/>
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B667" s="4" t="s">
         <v>6</v>
@@ -10269,7 +10266,7 @@
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B668" s="4" t="s">
         <v>6</v>
@@ -10279,7 +10276,7 @@
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B669" s="4" t="s">
         <v>115</v>
@@ -10289,7 +10286,7 @@
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B670" s="4" t="s">
         <v>6</v>
@@ -10299,17 +10296,17 @@
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="B671" s="4" t="s">
         <v>850</v>
-      </c>
-      <c r="B671" s="4" t="s">
-        <v>851</v>
       </c>
       <c r="C671" s="4"/>
       <c r="D671" s="4"/>
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B672" s="4" t="s">
         <v>29</v>
@@ -10319,7 +10316,7 @@
     </row>
     <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B673" s="4" t="s">
         <v>6</v>
@@ -10329,7 +10326,7 @@
     </row>
     <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B674" s="4" t="s">
         <v>6</v>
@@ -10339,7 +10336,7 @@
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B675" s="4" t="s">
         <v>6</v>
@@ -10349,7 +10346,7 @@
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B676" s="4" t="s">
         <v>6</v>
@@ -10359,7 +10356,7 @@
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B677" s="4" t="s">
         <v>6</v>
@@ -10369,7 +10366,7 @@
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B678" s="4" t="s">
         <v>6</v>
@@ -10379,7 +10376,7 @@
     </row>
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B679" s="4" t="s">
         <v>128</v>
@@ -10389,7 +10386,7 @@
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B680" s="4" t="s">
         <v>6</v>
@@ -10399,7 +10396,7 @@
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B681" s="4" t="s">
         <v>6</v>
@@ -10409,7 +10406,7 @@
     </row>
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B682" s="4" t="s">
         <v>6</v>
@@ -10419,7 +10416,7 @@
     </row>
     <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B683" s="4" t="s">
         <v>6</v>
@@ -10429,7 +10426,7 @@
     </row>
     <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B684" s="4" t="s">
         <v>6</v>
@@ -10439,17 +10436,17 @@
     </row>
     <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="B685" s="4" t="s">
         <v>865</v>
-      </c>
-      <c r="B685" s="4" t="s">
-        <v>866</v>
       </c>
       <c r="C685" s="4"/>
       <c r="D685" s="4"/>
     </row>
     <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B686" s="4" t="s">
         <v>112</v>
@@ -10459,7 +10456,7 @@
     </row>
     <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B687" s="4" t="s">
         <v>6</v>
@@ -10469,7 +10466,7 @@
     </row>
     <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B688" s="4" t="s">
         <v>6</v>
@@ -10479,7 +10476,7 @@
     </row>
     <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B689" s="4" t="s">
         <v>6</v>
@@ -10489,7 +10486,7 @@
     </row>
     <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B690" s="4" t="s">
         <v>6</v>
@@ -10499,7 +10496,7 @@
     </row>
     <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B691" s="4" t="s">
         <v>6</v>
@@ -10509,7 +10506,7 @@
     </row>
     <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B692" s="4" t="s">
         <v>115</v>
@@ -10519,7 +10516,7 @@
     </row>
     <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B693" s="4" t="s">
         <v>6</v>
@@ -10529,7 +10526,7 @@
     </row>
     <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B694" s="4" t="s">
         <v>6</v>
@@ -10539,7 +10536,7 @@
     </row>
     <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B695" s="4" t="s">
         <v>29</v>
@@ -10549,7 +10546,7 @@
     </row>
     <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B696" s="4" t="s">
         <v>6</v>
@@ -10559,7 +10556,7 @@
     </row>
     <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B697" s="4" t="s">
         <v>6</v>
@@ -10569,7 +10566,7 @@
     </row>
     <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B698" s="4" t="s">
         <v>6</v>
@@ -10579,7 +10576,7 @@
     </row>
     <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B699" s="4" t="s">
         <v>6</v>
@@ -10589,7 +10586,7 @@
     </row>
     <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B700" s="4" t="s">
         <v>6</v>
@@ -10599,7 +10596,7 @@
     </row>
     <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B701" s="4" t="s">
         <v>6</v>
@@ -10609,7 +10606,7 @@
     </row>
     <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B702" s="4" t="s">
         <v>6</v>
@@ -10619,7 +10616,7 @@
     </row>
     <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B703" s="4" t="s">
         <v>29</v>
@@ -10629,7 +10626,7 @@
     </row>
     <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B704" s="4" t="s">
         <v>134</v>
@@ -10639,7 +10636,7 @@
     </row>
     <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B705" s="4" t="s">
         <v>115</v>
@@ -10649,7 +10646,7 @@
     </row>
     <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B706" s="4" t="s">
         <v>6</v>
@@ -10659,7 +10656,7 @@
     </row>
     <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B707" s="4" t="s">
         <v>6</v>
@@ -10669,7 +10666,7 @@
     </row>
     <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="4" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B708" s="4" t="s">
         <v>134</v>
@@ -10679,7 +10676,7 @@
     </row>
     <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="4" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B709" s="4" t="s">
         <v>6</v>
@@ -10689,7 +10686,7 @@
     </row>
     <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B710" s="4" t="s">
         <v>264</v>
@@ -10699,7 +10696,7 @@
     </row>
     <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B711" s="4" t="s">
         <v>134</v>
@@ -10709,17 +10706,17 @@
     </row>
     <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B712" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C712" s="4"/>
       <c r="D712" s="4"/>
     </row>
     <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B713" s="4" t="s">
         <v>6</v>
@@ -10729,7 +10726,7 @@
     </row>
     <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B714" s="4" t="s">
         <v>6</v>
@@ -10739,7 +10736,7 @@
     </row>
     <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B715" s="4" t="s">
         <v>6</v>
@@ -10749,7 +10746,7 @@
     </row>
     <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B716" s="2" t="s">
         <v>6</v>
@@ -10757,7 +10754,7 @@
     </row>
     <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B717" s="2" t="s">
         <v>115</v>
@@ -10808,7 +10805,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -10823,7 +10820,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>29</v>
@@ -10833,7 +10830,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>29</v>
@@ -10843,7 +10840,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
@@ -10853,7 +10850,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>6</v>
@@ -10863,7 +10860,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>6</v>
@@ -10873,17 +10870,17 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>905</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>906</v>
       </c>
       <c r="C9" s="0"/>
       <c r="D9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>63</v>
@@ -10893,7 +10890,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>6</v>
@@ -10903,7 +10900,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>10</v>
@@ -10913,7 +10910,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>10</v>
@@ -10923,27 +10920,27 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>911</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>912</v>
       </c>
       <c r="C14" s="0"/>
       <c r="D14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>913</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>914</v>
       </c>
       <c r="C15" s="0"/>
       <c r="D15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>385</v>
@@ -10953,7 +10950,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>10</v>
@@ -10983,7 +10980,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>10</v>
@@ -10993,7 +10990,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>10</v>
@@ -11096,14 +11093,14 @@
         <v>198</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C31" s="0"/>
       <c r="D31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>10</v>
@@ -11113,20 +11110,20 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>921</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>922</v>
       </c>
       <c r="C33" s="0"/>
       <c r="D33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>923</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>924</v>
       </c>
       <c r="C34" s="0"/>
       <c r="D34" s="0"/>
@@ -11173,107 +11170,107 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>925</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>926</v>
       </c>
       <c r="C39" s="0"/>
       <c r="D39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>927</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>928</v>
       </c>
       <c r="C40" s="0"/>
       <c r="D40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>929</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>930</v>
       </c>
       <c r="C41" s="0"/>
       <c r="D41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C42" s="0"/>
       <c r="D42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>932</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>933</v>
       </c>
       <c r="C43" s="0"/>
       <c r="D43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C44" s="0"/>
       <c r="D44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>935</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>936</v>
       </c>
       <c r="C45" s="0"/>
       <c r="D45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>937</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>938</v>
       </c>
       <c r="C46" s="0"/>
       <c r="D46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>939</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>940</v>
       </c>
       <c r="C47" s="0"/>
       <c r="D47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>941</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>942</v>
       </c>
       <c r="C48" s="0"/>
       <c r="D48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B49" s="4" t="n">
         <v>82</v>
@@ -11283,7 +11280,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B50" s="4" t="n">
         <v>160</v>
@@ -11293,7 +11290,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>107</v>
@@ -11303,7 +11300,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>125</v>
@@ -11313,47 +11310,47 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>947</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>948</v>
       </c>
       <c r="C53" s="0"/>
       <c r="D53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C54" s="0"/>
       <c r="D54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>950</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>951</v>
       </c>
       <c r="C55" s="0"/>
       <c r="D55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>952</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>953</v>
       </c>
       <c r="C56" s="0"/>
       <c r="D56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>6</v>
@@ -11363,7 +11360,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>29</v>
@@ -11373,7 +11370,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B59" s="4" t="n">
         <v>1</v>
@@ -11383,7 +11380,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>10</v>
@@ -11393,7 +11390,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>10</v>
@@ -11403,7 +11400,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>10</v>
@@ -11413,77 +11410,77 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>960</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>961</v>
       </c>
       <c r="C63" s="0"/>
       <c r="D63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C64" s="0"/>
       <c r="D64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C65" s="0"/>
       <c r="D65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C66" s="0"/>
       <c r="D66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C67" s="0"/>
       <c r="D67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C68" s="0"/>
       <c r="D68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C69" s="0"/>
       <c r="D69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>340</v>
@@ -11493,27 +11490,27 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C71" s="0"/>
       <c r="D71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>970</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>971</v>
       </c>
       <c r="C72" s="0"/>
       <c r="D72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B73" s="4" t="n">
         <v>66</v>
@@ -11523,7 +11520,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B74" s="4" t="n">
         <v>80</v>
@@ -11533,7 +11530,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>107</v>
@@ -11543,7 +11540,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>125</v>
@@ -11553,47 +11550,47 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C77" s="0"/>
       <c r="D77" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C78" s="0"/>
       <c r="D78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C79" s="0"/>
       <c r="D79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>979</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>980</v>
       </c>
       <c r="C80" s="0"/>
       <c r="D80" s="0"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>6</v>
@@ -11603,7 +11600,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>29</v>
@@ -11613,7 +11610,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B83" s="4" t="n">
         <v>1</v>
@@ -11623,17 +11620,17 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>984</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>985</v>
       </c>
       <c r="C84" s="0"/>
       <c r="D84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>10</v>
@@ -11643,7 +11640,7 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>10</v>
@@ -11656,14 +11653,14 @@
         <v>254</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C87" s="0"/>
       <c r="D87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>10</v>
@@ -11673,7 +11670,7 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>10</v>
@@ -11683,7 +11680,7 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>10</v>
@@ -11693,7 +11690,7 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>10</v>
@@ -11703,7 +11700,7 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>115</v>
@@ -11713,7 +11710,7 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>115</v>
@@ -11723,7 +11720,7 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>6</v>
@@ -11733,7 +11730,7 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>6</v>
@@ -11743,57 +11740,57 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>996</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>997</v>
       </c>
       <c r="C96" s="0"/>
       <c r="D96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>998</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>999</v>
       </c>
       <c r="C97" s="0"/>
       <c r="D97" s="0"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C98" s="0"/>
       <c r="D98" s="0"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C99" s="0"/>
       <c r="D99" s="0"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>520</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>521</v>
       </c>
       <c r="C100" s="0"/>
       <c r="D100" s="0"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>261</v>
@@ -11803,7 +11800,7 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>80</v>
@@ -11813,17 +11810,17 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C103" s="0"/>
       <c r="D103" s="0"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>10</v>
@@ -11833,7 +11830,7 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>10</v>
@@ -11843,7 +11840,7 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>10</v>
@@ -11853,7 +11850,7 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>10</v>
@@ -11863,7 +11860,7 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>10</v>
@@ -11873,17 +11870,17 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>1008</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>1009</v>
       </c>
       <c r="C109" s="0"/>
       <c r="D109" s="0"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>10</v>
@@ -11893,7 +11890,7 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>29</v>
@@ -11903,7 +11900,7 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>29</v>
@@ -11913,7 +11910,7 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>29</v>
@@ -11923,7 +11920,7 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>29</v>
@@ -11933,17 +11930,17 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>1015</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>1016</v>
       </c>
       <c r="C115" s="0"/>
       <c r="D115" s="0"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>63</v>
@@ -11953,7 +11950,7 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>6</v>
@@ -11963,7 +11960,7 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>63</v>
@@ -11973,7 +11970,7 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>6</v>
@@ -11983,7 +11980,7 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>6</v>
@@ -11993,7 +11990,7 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>6</v>
@@ -12003,7 +12000,7 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>6</v>
@@ -12013,7 +12010,7 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>6</v>
@@ -12023,7 +12020,7 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>6</v>
@@ -12033,7 +12030,7 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>6</v>
@@ -12043,7 +12040,7 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>6</v>
@@ -12053,7 +12050,7 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>6</v>
@@ -12063,7 +12060,7 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>6</v>
@@ -12073,7 +12070,7 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>6</v>
@@ -12083,7 +12080,7 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>6</v>
@@ -12093,7 +12090,7 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>6</v>
@@ -12103,7 +12100,7 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>6</v>
@@ -12113,7 +12110,7 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>6</v>
@@ -12123,7 +12120,7 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>112</v>
@@ -12133,7 +12130,7 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>112</v>
@@ -12143,27 +12140,27 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C136" s="0"/>
       <c r="D136" s="0"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C137" s="0"/>
       <c r="D137" s="0"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>6</v>
@@ -12173,7 +12170,7 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>6</v>
@@ -12183,17 +12180,17 @@
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C140" s="0"/>
       <c r="D140" s="0"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>6</v>
@@ -12203,7 +12200,7 @@
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>29</v>
@@ -12213,7 +12210,7 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>29</v>
@@ -12223,17 +12220,17 @@
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C144" s="0"/>
       <c r="D144" s="0"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>6</v>
@@ -12243,7 +12240,7 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="4" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>6</v>
@@ -12253,17 +12250,17 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C147" s="0"/>
       <c r="D147" s="0"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>6</v>
@@ -12273,7 +12270,7 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>6</v>
@@ -12283,7 +12280,7 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>29</v>
@@ -12293,17 +12290,17 @@
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="4" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C151" s="0"/>
       <c r="D151" s="0"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="4" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>29</v>
@@ -12313,17 +12310,17 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C153" s="0"/>
       <c r="D153" s="0"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>134</v>
@@ -12333,7 +12330,7 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="4" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>134</v>
@@ -12343,17 +12340,17 @@
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="4" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C156" s="0"/>
       <c r="D156" s="0"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="4" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>29</v>
@@ -12363,17 +12360,17 @@
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B158" s="4" t="s">
         <v>1059</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>1060</v>
       </c>
       <c r="C158" s="0"/>
       <c r="D158" s="0"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>6</v>
@@ -12383,7 +12380,7 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>6</v>
@@ -12393,7 +12390,7 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>115</v>
@@ -12403,17 +12400,17 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B162" s="4" t="s">
         <v>1064</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>1065</v>
       </c>
       <c r="C162" s="0"/>
       <c r="D162" s="0"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>6</v>
@@ -12423,7 +12420,7 @@
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>6</v>
@@ -12433,7 +12430,7 @@
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>115</v>
@@ -12443,7 +12440,7 @@
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>6</v>
@@ -12453,7 +12450,7 @@
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>63</v>
@@ -12463,7 +12460,7 @@
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>6</v>
@@ -12473,7 +12470,7 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="4" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>6</v>
@@ -12483,7 +12480,7 @@
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="4" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>115</v>
@@ -12493,7 +12490,7 @@
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>115</v>
@@ -12503,7 +12500,7 @@
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>6</v>
@@ -12513,7 +12510,7 @@
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>6</v>
@@ -12523,7 +12520,7 @@
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="4" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>6</v>
@@ -12533,7 +12530,7 @@
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="4" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>6</v>
@@ -12543,7 +12540,7 @@
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="4" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>6</v>
@@ -12553,7 +12550,7 @@
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="4" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>264</v>
@@ -12563,7 +12560,7 @@
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>6</v>
@@ -12573,7 +12570,7 @@
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>6</v>
@@ -12583,7 +12580,7 @@
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>6</v>
@@ -12593,7 +12590,7 @@
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>6</v>
@@ -12643,7 +12640,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12656,18 +12653,18 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>12.47</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>12.47</v>
@@ -12704,78 +12701,78 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12783,47 +12780,47 @@
         <v>428</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="6" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="6" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D17" s="0" t="s">
         <v>1105</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>1107</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12831,12 +12828,12 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="6" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>0</v>
@@ -12844,7 +12841,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>0</v>
@@ -12852,7 +12849,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>1</v>
@@ -12860,7 +12857,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D26" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -12872,146 +12869,146 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="3" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D30" s="0" t="s">
         <v>1114</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>1116</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D44" s="0" t="s">
         <v>1128</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>1129</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D45" s="0" t="s">
         <v>1130</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D46" s="0" t="s">
         <v>1132</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D47" s="0" t="s">
         <v>1134</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D48" s="0" t="s">
         <v>1136</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D49" s="0" t="s">
         <v>1138</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D50" s="0" t="s">
         <v>1140</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D51" s="0" t="s">
         <v>1142</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>1143</v>
       </c>
     </row>
   </sheetData>
